--- a/AzentioAutomationFramework_Ijara/TestData/IjaraJSPaths.xlsx
+++ b/AzentioAutomationFramework_Ijara/TestData/IjaraJSPaths.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="IncomeDetailsList" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -24,59 +24,371 @@
     <t>JSPath</t>
   </si>
   <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-input[ng-reflect-name="username"]&gt;input')</t>
+  </si>
+  <si>
     <t>continueButton</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-input[ng-reflect-name="username"]&gt;input')</t>
-  </si>
-  <si>
     <t>document.getElementsByTagName('ion-button')[0]</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>document.querySelector('ion-input[ng-reflect-name="password"]&gt;input')</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>otpField</t>
   </si>
   <si>
+    <t>document.querySelector("input[autocomplete='one-time-code']").value</t>
+  </si>
+  <si>
+    <t>signInButton</t>
+  </si>
+  <si>
     <t>document.getElementsByClassName('loginbtn ion-color ion-color-primary md button button-block button-solid ion-activatable ion-focusable hydrated')[0]</t>
   </si>
   <si>
-    <t>signInButton</t>
+    <t>userProfile</t>
   </si>
   <si>
     <t>document.querySelector('ion-item[ng-reflect-text="Profile"]')</t>
   </si>
   <si>
-    <t>userProfile</t>
-  </si>
-  <si>
     <t>logoutButton</t>
   </si>
   <si>
-    <t>document.querySelector("input[autocomplete='one-time-code']").value</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-icon[name="log-out-outline"]+span')</t>
+  </si>
+  <si>
+    <t>Ijara_FieldName</t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>moduleName</t>
+  </si>
+  <si>
+    <t>selectLOS</t>
+  </si>
+  <si>
+    <t>document.querySelector('#menu-content &gt; app-tabs &gt; kub-header &gt; ion-header &gt; ion-toolbar &gt; section &gt; ion-list &gt; ion-item:nth-child(5) &gt; ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('#ion-overlay-1 &gt; ion-select-popover &gt; ion-list &gt; ion-radio-group &gt; ion-item:nth-child(3)')</t>
+  </si>
+  <si>
+    <t>clickSearchInInbox</t>
+  </si>
+  <si>
+    <t>searchInInbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt;input') </t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; button')</t>
+  </si>
+  <si>
+    <t>document.querySelector('#menu-content &gt; app-tabs &gt; kub-header &gt; ion-header &gt; ion-toolbar &gt; section &gt; ion-list &gt; ion-item:nth-child(2) &gt; div &gt; div &gt; ion-icon').shadowRoot.querySelector('div &gt; svg')</t>
+  </si>
+  <si>
+    <t>selectRecord</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1-table &gt; tbody &gt; tr:nth-child(1) &gt; td.tableuser-inbox &gt; button')</t>
+  </si>
+  <si>
+    <t>CustomerFinacials</t>
+  </si>
+  <si>
+    <t>document.querySelector('#seg4')</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>AddButtonInIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>Employment Type</t>
+  </si>
+  <si>
+    <t>saveButton</t>
+  </si>
+  <si>
+    <t>Lumpsum Amount</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="employmentType"]').previousSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="lumpsumAmount"]').previousSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Save"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seq\\#2 &gt; page-composer-parser &gt; ion-content &gt; ion-grid &gt; ion-row &gt; ion-col &gt; kub-wrapper &gt; ion-grid &gt; ion-row &gt; ion-col &gt; ion-card &gt; ion-card-content &gt; income &gt; form &gt; ion-row.ng-star-inserted.md.hydrated &gt; ion-col:nth-child(1) &gt; digital-prime-date &gt; div &gt; ion-item &gt; div &gt; ion-label")</t>
+  </si>
+  <si>
+    <t>Financial Year</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seq\\#2 &gt; page-composer-parser &gt; ion-content &gt; ion-grid &gt; ion-row &gt; ion-col &gt; kub-wrapper &gt; ion-grid &gt; ion-row &gt; ion-col &gt; ion-card &gt; ion-card-content &gt; income &gt; form &gt; ion-row.ng-star-inserted.md.hydrated &gt; ion-col:nth-child(2) &gt; digital-prime-date &gt; div &gt; ion-item &gt; div &gt; ion-label")</t>
+  </si>
+  <si>
+    <t>Filing Date</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-sm p-button-info p-button-raised grid-Addbtn p-button p-component p-button-icon-only ng-star-inserted")[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class^="p-datatable-thead"] tr')[5].children[0]</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Defined</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Amount Considered</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class^="p-datatable-thead"] tr')[5].children[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class^="p-datatable-thead"] tr')[5].children[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class^="p-datatable-thead"] tr')[5].children[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class^="p-datatable-thead"] tr')[5].children[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class^="p-datatable-thead"] tr')[5].children[5]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class^="p-datatable-thead"] tr')[5].children[6]</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="totalIncome"]').previousSibling</t>
+  </si>
+  <si>
+    <t>Total Income</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="totalIncomeConsidered"]').previousSibling</t>
+  </si>
+  <si>
+    <t>Total Income Considered</t>
+  </si>
+  <si>
+    <t>Salary Credited To Bank</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="totalIncomeConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class="p-datatable-thead"] tr')[6].children[0]</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>Deduction Amt</t>
+  </si>
+  <si>
+    <t>Deduction Def</t>
+  </si>
+  <si>
+    <t>Deduction Adj</t>
+  </si>
+  <si>
+    <t>Deduction Considered</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class="p-datatable-thead"] tr')[6].children[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class="p-datatable-thead"] tr')[6].children[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class="p-datatable-thead"] tr')[6].children[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class="p-datatable-thead"] tr')[6].children[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class="p-datatable-thead"] tr')[6].children[5]</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="totalDeduction"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>Total Deduction</t>
+  </si>
+  <si>
+    <t>Total Deduction Considered</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="totalDeductionConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="totalDeductionConsidered"]').parentElement.nextSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="employmentType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="lumpsumAmount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector("#icon")</t>
+  </si>
+  <si>
+    <t>Employment TypeInput</t>
+  </si>
+  <si>
+    <t>Financial YearInput</t>
+  </si>
+  <si>
+    <t>Lumpsum AmountInput</t>
+  </si>
+  <si>
+    <t>Filing DateInput</t>
+  </si>
+  <si>
+    <t>IncomeInput</t>
+  </si>
+  <si>
+    <t>FrequencyInput</t>
+  </si>
+  <si>
+    <t>AmountInput</t>
+  </si>
+  <si>
+    <t>DefinedInput</t>
+  </si>
+  <si>
+    <t>AdjustedInput</t>
+  </si>
+  <si>
+    <t>Amount ConsideredInput</t>
+  </si>
+  <si>
+    <t>ActionInput</t>
+  </si>
+  <si>
+    <t>Total IncomeInput</t>
+  </si>
+  <si>
+    <t>Total Income ConsideredInput</t>
+  </si>
+  <si>
+    <t>Salary Credited To BankInput</t>
+  </si>
+  <si>
+    <t>DeductionInput</t>
+  </si>
+  <si>
+    <t>Deduction AmtInput</t>
+  </si>
+  <si>
+    <t>Deduction DefInput</t>
+  </si>
+  <si>
+    <t>Deduction AdjInput</t>
+  </si>
+  <si>
+    <t>Deduction ConsideredInput</t>
+  </si>
+  <si>
+    <t>Total DeductionInput</t>
+  </si>
+  <si>
+    <t>Total Deduction ConsideredInput</t>
+  </si>
+  <si>
+    <t>CurrencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll("#icon")[1]</t>
+  </si>
+  <si>
+    <t>document.querySelector("#incomeAmount0")</t>
+  </si>
+  <si>
+    <t>document.querySelector("#ion-overlay-15 &gt; ion-select-popover &gt; ion-list &gt; ion-radio-group &gt; ion-item:nth-child(2) &gt; ion-radio").shadowRoot.querySelector("label")</t>
+  </si>
+  <si>
+    <t>FrequencyInputOptions</t>
+  </si>
+  <si>
+    <t>document.querySelector("#ion-overlay-18").shadowRoot.querySelector("div &gt; div &gt; div.toast-content &gt; div")</t>
+  </si>
+  <si>
+    <t>SucessSavePopup</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[1]</t>
+  </si>
+  <si>
+    <t>Backbutton</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seq\\#3 &gt; page-composer-parser &gt; ion-content &gt; ion-grid &gt; ion-row &gt; ion-col &gt; kub-wrapper &gt; ion-grid &gt; ion-row &gt; ion-col &gt; ion-card &gt; ion-card-content &gt; income &gt; ion-row.p-0.m-0.md.hydrated &gt; ion-col &gt; div &gt; ion-title &gt; button")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343A40"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,8 +411,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,14 +715,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="143.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="179.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -417,15 +735,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -433,10 +751,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -452,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,12 +778,12 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -478,13 +796,501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="224.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25">
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
